--- a/astrolabe/Astrolabe_Measurement_Template.xlsx
+++ b/astrolabe/Astrolabe_Measurement_Template.xlsx
@@ -1384,7 +1384,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$1</c:f>
+              <c:f>Sheet1!$S$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -1416,13 +1416,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$S$2:$S$9</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$9</c:f>
+              <c:f>Sheet1!$T$2:$Y$2</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1432,7 +1432,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$1</c:f>
+              <c:f>Sheet1!$S$3</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -1464,13 +1464,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$S$2:$S$9</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$9</c:f>
+              <c:f>Sheet1!$T$3:$Y$3</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1480,7 +1480,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$1</c:f>
+              <c:f>Sheet1!$S$4</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -1512,13 +1512,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$S$2:$S$9</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$2:$V$9</c:f>
+              <c:f>Sheet1!$T$4:$Y$4</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1528,7 +1528,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$1</c:f>
+              <c:f>Sheet1!$S$5</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -1560,13 +1560,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$S$2:$S$9</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$2:$W$9</c:f>
+              <c:f>Sheet1!$T$5:$Y$5</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1576,7 +1576,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$1</c:f>
+              <c:f>Sheet1!$S$6</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -1608,13 +1608,13 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$S$2:$S$9</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$2:$X$9</c:f>
+              <c:f>Sheet1!$T$6:$Y$6</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1624,7 +1624,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$1</c:f>
+              <c:f>Sheet1!$S$7</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -1656,13 +1656,193 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$S$2:$S$9</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$2:$Y$9</c:f>
+              <c:f>Sheet1!$T$7:$Y$7</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$8</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showBubbleSize val="0"/>
+            <c:showCatName val="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showPercent val="0"/>
+            <c:showSerName val="0"/>
+            <c:showVal val="0"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr/>
+              </a:p>
+            </c:txPr>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$8:$Y$8</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$9</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showBubbleSize val="0"/>
+            <c:showCatName val="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showPercent val="0"/>
+            <c:showSerName val="0"/>
+            <c:showVal val="0"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr/>
+              </a:p>
+            </c:txPr>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$1:$Y$1</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$9:$Y$9</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
